--- a/angabe1/data/2017/Messungen_2017_Geschwindigkeit_Treppe_Auf.xlsx
+++ b/angabe1/data/2017/Messungen_2017_Geschwindigkeit_Treppe_Auf.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>Runde</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>gerannt; Stufen übersprungen</t>
-  </si>
-  <si>
-    <t>Geschwindigkeit</t>
   </si>
   <si>
     <t>Zeit</t>
@@ -43,9 +40,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -119,7 +113,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -408,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -420,27 +413,23 @@
     <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -451,12 +440,8 @@
         <v>10.38</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="7">
-        <f>9.39/C2</f>
-        <v>0.90462427745664742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -467,12 +452,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3" s="7">
-        <f t="shared" ref="E3:E66" si="0">9.39/C3</f>
-        <v>0.93900000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -483,12 +464,8 @@
         <v>10.68</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87921348314606751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -499,12 +476,8 @@
         <v>10.41</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>0.90201729106628248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -515,12 +488,8 @@
         <v>11.1</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84594594594594608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -531,12 +500,8 @@
         <v>11.34</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.82804232804232814</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -547,12 +512,8 @@
         <v>12.15</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>0.77283950617283959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -563,12 +524,8 @@
         <v>11.83</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.79374471682163994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -579,12 +536,8 @@
         <v>12.22</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.76841243862520459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -597,12 +550,8 @@
       <c r="D11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0173347778981583</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -615,12 +564,8 @@
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3077994428969362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -631,12 +576,8 @@
         <v>10.72</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87593283582089554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -648,17 +589,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.72230769230769232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:B22" si="1">B14+1</f>
+        <f t="shared" ref="B15:B22" si="0">B14+1</f>
         <v>14</v>
       </c>
       <c r="C15" s="5">
@@ -667,68 +604,52 @@
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>1.0694760820045559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C16" s="5">
         <v>11.94</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="7">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>0.78643216080402023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C17" s="5">
         <v>13.38</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="7">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>0.7017937219730942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C18" s="5">
         <v>11.25</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="7">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>0.83466666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C19" s="5">
@@ -737,63 +658,47 @@
       <c r="D19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="7">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>1.3911111111111112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C20" s="5">
         <v>11</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="7">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>0.85363636363636364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C21" s="5">
         <v>13.35</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="7">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>0.70337078651685403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C22" s="5">
         <v>11.97</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>0.78446115288220553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -805,12 +710,8 @@
         <v>11.59</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>0.8101811906816222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -821,12 +722,8 @@
         <v>11</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85363636363636364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -837,12 +734,8 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>0.95040485829959509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -853,12 +746,8 @@
         <v>10.72</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87593283582089554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -869,12 +758,8 @@
         <v>10.44</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89942528735632199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -885,12 +770,8 @@
         <v>10.5</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>0.89428571428571435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -901,12 +782,8 @@
         <v>11.32</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>0.8295053003533569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -917,12 +794,8 @@
         <v>12.38</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>0.75848142164781907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -933,12 +806,8 @@
         <v>12.23</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>0.76778413736713003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -949,12 +818,8 @@
         <v>11.62</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>0.80808950086058529</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -967,12 +832,8 @@
       <c r="D33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>0.97004132231404971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -985,12 +846,8 @@
       <c r="D34" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2258485639686685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -1001,12 +858,8 @@
         <v>12.16</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>0.77220394736842113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1018,17 +871,13 @@
         <v>12.19</v>
       </c>
       <c r="D36" s="4"/>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>0.77030352748154229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" ref="B37:B44" si="2">B36+1</f>
+        <f t="shared" ref="B37:B44" si="1">B36+1</f>
         <v>14</v>
       </c>
       <c r="C37" s="5">
@@ -1037,68 +886,52 @@
       <c r="D37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1008206330597892</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C38" s="5">
         <v>12.12</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>0.77475247524752489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C39" s="5">
         <v>13.28</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="7">
-        <f t="shared" si="0"/>
-        <v>0.70707831325301207</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C40" s="5">
         <v>11.15</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84215246636771302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C41" s="5">
@@ -1107,63 +940,47 @@
       <c r="D41" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>1.2898351648351649</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C42" s="5">
         <v>11.19</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="7">
-        <f t="shared" si="0"/>
-        <v>0.83914209115281513</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C43" s="5">
         <v>14.08</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="7">
-        <f t="shared" si="0"/>
-        <v>0.66690340909090917</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C44" s="5">
         <v>11.5</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.8165217391304348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -1175,12 +992,8 @@
         <v>12.03</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="7">
-        <f t="shared" si="0"/>
-        <v>0.7805486284289278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -1191,12 +1004,8 @@
         <v>10.9</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="7">
-        <f t="shared" si="0"/>
-        <v>0.86146788990825696</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>3</v>
       </c>
@@ -1207,12 +1016,8 @@
         <v>10.220000000000001</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="7">
-        <f t="shared" si="0"/>
-        <v>0.91878669275929548</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -1223,12 +1028,8 @@
         <v>10.78</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="7">
-        <f t="shared" si="0"/>
-        <v>0.87105751391465691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -1239,12 +1040,8 @@
         <v>10.4</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="7">
-        <f t="shared" si="0"/>
-        <v>0.9028846153846154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -1255,12 +1052,8 @@
         <v>10.6</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="7">
-        <f t="shared" si="0"/>
-        <v>0.88584905660377367</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -1271,12 +1064,8 @@
         <v>11.25</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="7">
-        <f t="shared" si="0"/>
-        <v>0.83466666666666667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -1287,12 +1076,8 @@
         <v>13.4</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="7">
-        <f t="shared" si="0"/>
-        <v>0.70074626865671641</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -1303,12 +1088,8 @@
         <v>11.55</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="7">
-        <f t="shared" si="0"/>
-        <v>0.81298701298701304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -1319,12 +1100,8 @@
         <v>11.64</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54" s="7">
-        <f t="shared" si="0"/>
-        <v>0.80670103092783507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -1337,12 +1114,8 @@
       <c r="D55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="7">
-        <f t="shared" si="0"/>
-        <v>0.93247269116186693</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -1355,12 +1128,8 @@
       <c r="D56" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1826196473551638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -1371,12 +1140,8 @@
         <v>12.94</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57" s="7">
-        <f t="shared" si="0"/>
-        <v>0.72565687789799083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -1388,17 +1153,13 @@
         <v>11.28</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="7">
-        <f t="shared" si="0"/>
-        <v>0.83244680851063835</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" ref="B59:B66" si="3">B58+1</f>
+        <f t="shared" ref="B59:B66" si="2">B58+1</f>
         <v>14</v>
       </c>
       <c r="C59" s="5">
@@ -1407,68 +1168,52 @@
       <c r="D59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="7">
-        <f t="shared" si="0"/>
-        <v>1.084295612009238</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C60" s="5">
         <v>11.44</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="7">
-        <f t="shared" si="0"/>
-        <v>0.82080419580419584</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>3</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C61" s="5">
         <v>13.18</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="7">
-        <f t="shared" si="0"/>
-        <v>0.71244309559939312</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>3</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C62" s="5">
         <v>10.56</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62" s="7">
-        <f t="shared" si="0"/>
-        <v>0.88920454545454541</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>3</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C63" s="5">
@@ -1477,63 +1222,47 @@
       <c r="D63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="7">
-        <f t="shared" si="0"/>
-        <v>1.305980528511822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>3</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C64" s="5">
         <v>11.22</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="7">
-        <f t="shared" si="0"/>
-        <v>0.83689839572192515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>3</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C65" s="5">
         <v>13.92</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="7">
-        <f t="shared" si="0"/>
-        <v>0.67456896551724144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>3</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C66" s="5">
         <v>11.84</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="7">
-        <f t="shared" si="0"/>
-        <v>0.79307432432432434</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>3</v>
       </c>
@@ -1545,10 +1274,6 @@
         <v>11.57</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67" s="7">
-        <f t="shared" ref="E67" si="4">9.39/C67</f>
-        <v>0.81158167675021609</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
